--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ43"/>
+  <dimension ref="A1:AJ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -686,19 +686,19 @@
         <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="U2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="W2" t="n">
+        <v>29</v>
+      </c>
+      <c r="X2" t="n">
         <v>34</v>
-      </c>
-      <c r="X2" t="n">
-        <v>41</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
@@ -719,19 +719,19 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AH2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
     </row>
@@ -767,13 +767,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
         <v>1.14</v>
@@ -782,10 +782,10 @@
         <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
@@ -815,16 +815,16 @@
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -887,25 +887,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.02</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
       </c>
       <c r="K4" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="L4" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="M4" t="n">
-        <v>4.05</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
         <v>1.65</v>
@@ -914,67 +914,67 @@
         <v>2.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="U4" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="W4" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="X4" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG4" t="n">
         <v>28</v>
       </c>
-      <c r="Y4" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>45</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>21</v>
-      </c>
       <c r="AH4" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
@@ -1008,36 +1008,96 @@
           <t>San Marcos de Arica</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="T5" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>40</v>
+      </c>
+      <c r="X5" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1070,41 +1130,99 @@
           <t>America De Cali</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="K6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11</v>
+      </c>
+      <c r="V6" t="n">
+        <v>12</v>
+      </c>
+      <c r="W6" t="n">
+        <v>29</v>
+      </c>
+      <c r="X6" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>51</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>51</v>
+      </c>
       <c r="AJ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K4aghgNt</t>
+          <t>ILYvh5pe</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1114,59 +1232,113 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>22:20</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>COLOMBIA - PRIMERA B</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Junior</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ind. Medellin</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>Inter Palmira</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.22</v>
+      </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="T7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="U7" t="n">
+        <v>14</v>
+      </c>
+      <c r="V7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="W7" t="n">
+        <v>37</v>
+      </c>
+      <c r="X7" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>37</v>
+      </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ILYvh5pe</t>
+          <t>vyNmjqF7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1176,7 +1348,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1186,49 +1358,105 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>Jaguares de Cordoba</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Inter Palmira</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>Cartagena</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="T8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>17</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>450</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vyNmjqF7</t>
+          <t>4rjbgtdS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1238,59 +1466,119 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA B</t>
+          <t>ITALY - SERIE C</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jaguares de Cordoba</t>
+          <t>Pescara</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cartagena</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
+          <t>Ternana</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>6</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>24</v>
+      </c>
+      <c r="X9" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>900</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4rjbgtdS</t>
+          <t>tv6WFpTs</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1300,119 +1588,117 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>06:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ITALY - SERIE C</t>
+          <t>JAPAN - J2 LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Pescara</t>
+          <t>Imabari</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ternana</t>
+          <t>Oita Trinita</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.62</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.83</v>
-      </c>
       <c r="T10" t="n">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="U10" t="n">
-        <v>10.75</v>
+        <v>9</v>
       </c>
       <c r="V10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="W10" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="X10" t="n">
         <v>21</v>
       </c>
       <c r="Y10" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AC10" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>700</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tv6WFpTs</t>
+          <t>fZ3MZeMG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1422,117 +1708,111 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>06:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JAPAN - J2 LEAGUE</t>
+          <t>MEXICO - LIGA DE EXPANSION MX</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Imabari</t>
+          <t>Leones Negros</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Oita Trinita</t>
+          <t>Tapatio</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>7</v>
-      </c>
+        <v>4.6</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="M11" t="n">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="N11" t="n">
-        <v>2.6</v>
+        <v>1.57</v>
       </c>
       <c r="O11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.25</v>
-      </c>
+        <v>2.1</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="V11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y11" t="n">
         <v>21</v>
       </c>
-      <c r="X11" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>41</v>
-      </c>
       <c r="Z11" t="n">
-        <v>6.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>13</v>
-      </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>fZ3MZeMG</t>
+          <t>KnxlkP03</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1542,107 +1822,107 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA DE EXPANSION MX</t>
+          <t>NETHERLANDS - TWEEDE DIVISIE</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leones Negros</t>
+          <t>Harkemase Boys</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tapatio</t>
+          <t>Noordwijk</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>4.6</v>
+        <v>1.98</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O12" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.12</v>
+        <v>2.27</v>
       </c>
       <c r="T12" t="n">
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="U12" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="X12" t="n">
-        <v>11.75</v>
+        <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>30</v>
+        <v>11.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>37</v>
+        <v>19.5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>KnxlkP03</t>
+          <t>WQegTsvp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1652,7 +1932,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1662,49 +1942,101 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Harkemase Boys</t>
+          <t>Kozakken Boys</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Noordwijk</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>Scheveningen</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.92</v>
+      </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.88</v>
+      </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="W13" t="n">
+        <v>23</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>350</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>WQegTsvp</t>
+          <t>W2DdoY6j</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1714,7 +2046,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1724,12 +2056,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Kozakken Boys</t>
+          <t>Jong Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Scheveningen</t>
+          <t>Feyenoord U21</t>
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
@@ -1766,7 +2098,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>W2DdoY6j</t>
+          <t>bsLqfbjt</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1776,59 +2108,113 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NETHERLANDS - TWEEDE DIVISIE</t>
+          <t>PARAGUAY - DIVISION INTERMEDIA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong Sparta Rotterdam</t>
+          <t>Tacuary</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Feyenoord U21</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>San Lorenzo</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.95</v>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T15" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="U15" t="n">
+        <v>10</v>
+      </c>
+      <c r="V15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="W15" t="n">
+        <v>23</v>
+      </c>
+      <c r="X15" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>110</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>45</v>
+      </c>
       <c r="AJ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>bsLqfbjt</t>
+          <t>67OihxLh</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1838,7 +2224,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1848,49 +2234,105 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tacuary</t>
+          <t>Sp. Carapegua</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>San Lorenzo</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
+          <t>Rubio Nu</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.7</v>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U16" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="V16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W16" t="n">
+        <v>26</v>
+      </c>
+      <c r="X16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>600</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>67OihxLh</t>
+          <t>2X0qVEzH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1900,59 +2342,119 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>PARAGUAY - DIVISION INTERMEDIA</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sp. Carapegua</t>
+          <t>Busan</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rubio Nu</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
+          <t>Ansan Greeners</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I17" t="n">
+        <v>5</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K17" t="n">
+        <v>10</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="T17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="W17" t="n">
+        <v>12</v>
+      </c>
+      <c r="X17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>351</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2X0qVEzH</t>
+          <t>hI7GNWSj</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1972,40 +2474,40 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Busan</t>
+          <t>Gyeongnam</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ansan Greeners</t>
+          <t>Hwaseong</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="O18" t="n">
-        <v>1.85</v>
+        <v>1.98</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2014,67 +2516,67 @@
         <v>3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T18" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="U18" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="V18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="W18" t="n">
+        <v>21</v>
+      </c>
+      <c r="X18" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z18" t="n">
         <v>12</v>
       </c>
-      <c r="X18" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y18" t="n">
+      <c r="AA18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG18" t="n">
         <v>29</v>
       </c>
-      <c r="Z18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>51</v>
-      </c>
       <c r="AH18" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AJ18" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>hI7GNWSj</t>
+          <t>MZGpTh5T</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2094,28 +2596,28 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Gyeongnam</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Hwaseong</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I19" t="n">
-        <v>2.88</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2124,10 +2626,10 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O19" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P19" t="n">
         <v>1.36</v>
@@ -2136,58 +2638,58 @@
         <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
+        <v>15</v>
+      </c>
+      <c r="V19" t="n">
         <v>11</v>
       </c>
-      <c r="V19" t="n">
-        <v>9.5</v>
-      </c>
       <c r="W19" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA19" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC19" t="n">
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AG19" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>201</v>
@@ -2196,7 +2698,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MZGpTh5T</t>
+          <t>4S1CD2GO</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2206,119 +2708,119 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O20" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="T20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>9</v>
+      </c>
+      <c r="W20" t="n">
         <v>15</v>
       </c>
-      <c r="V20" t="n">
-        <v>11</v>
-      </c>
-      <c r="W20" t="n">
-        <v>29</v>
-      </c>
       <c r="X20" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
         <v>41</v>
       </c>
-      <c r="AD20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>23</v>
-      </c>
       <c r="AH20" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>201</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4S1CD2GO</t>
+          <t>25Yu5e7K</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2328,119 +2830,119 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SPAIN - PRIMERA RFEF</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Murcia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Gimnastic</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>4.1</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.75</v>
+        <v>2.42</v>
       </c>
       <c r="N21" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="T21" t="n">
         <v>6</v>
       </c>
       <c r="U21" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="V21" t="n">
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG21" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AH21" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25Yu5e7K</t>
+          <t>hjuDcDaf</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2460,107 +2962,109 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Murcia</t>
+          <t>Ponferradina</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Gimnastic</t>
+          <t>Antequera</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>5.2</v>
       </c>
       <c r="J22" t="n">
-        <v>1.14</v>
+        <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.57</v>
+        <v>1.34</v>
       </c>
       <c r="M22" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>2.67</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.42</v>
+        <v>1.72</v>
       </c>
       <c r="P22" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R22" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="T22" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="U22" t="n">
-        <v>9.25</v>
+        <v>7.7</v>
       </c>
       <c r="V22" t="n">
-        <v>9.5</v>
+        <v>7.9</v>
       </c>
       <c r="W22" t="n">
-        <v>22</v>
+        <v>13.5</v>
       </c>
       <c r="X22" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Z22" t="n">
-        <v>4.9</v>
+        <v>6.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AF22" t="n">
-        <v>14</v>
+        <v>16.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="AH22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AI22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ22" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hjuDcDaf</t>
+          <t>lxNTKkNq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2570,119 +3074,119 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SPAIN - PRIMERA RFEF</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ponferradina</t>
+          <t>Liverpool M.</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Antequera</t>
+          <t>Cerro Largo</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K23" t="n">
-        <v>6.6</v>
+        <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R23" t="n">
         <v>2</v>
       </c>
-      <c r="O23" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.88</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="T23" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="V23" t="n">
-        <v>7.9</v>
+        <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Y23" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AC23" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG23" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AJ23" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lxNTKkNq</t>
+          <t>dvrkSXU9</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2692,7 +3196,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2702,73 +3206,73 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Liverpool M.</t>
+          <t>Danubio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Cerro Largo</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="H24" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L24" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N24" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="P24" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="R24" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="V24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="X24" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA24" t="n">
         <v>6.5</v>
@@ -2780,31 +3284,29 @@
         <v>67</v>
       </c>
       <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF24" t="n">
         <v>12</v>
       </c>
-      <c r="AE24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>17</v>
-      </c>
       <c r="AG24" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AH24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI24" t="n">
         <v>41</v>
       </c>
-      <c r="AI24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>251</v>
-      </c>
+      <c r="AJ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dvrkSXU9</t>
+          <t>fkhUITid</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2814,7 +3316,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2824,40 +3326,40 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Danubio</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Montevideo City</t>
+          <t>Plaza Colonia</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H25" t="n">
         <v>3.2</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J25" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L25" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="M25" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="N25" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P25" t="n">
         <v>1.53</v>
@@ -2875,13 +3377,13 @@
         <v>6.5</v>
       </c>
       <c r="U25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
@@ -2905,16 +3407,16 @@
         <v>7</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
@@ -2924,7 +3426,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fkhUITid</t>
+          <t>v3BOBCpT</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2934,7 +3436,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2944,107 +3446,109 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Penarol</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Plaza Colonia</t>
+          <t>Defensor Sp.</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K26" t="n">
+        <v>8</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>9</v>
+      </c>
+      <c r="W26" t="n">
+        <v>12</v>
+      </c>
+      <c r="X26" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>34</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA26" t="n">
         <v>7</v>
       </c>
-      <c r="L26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>11</v>
-      </c>
-      <c r="V26" t="n">
-        <v>11</v>
-      </c>
-      <c r="W26" t="n">
-        <v>26</v>
-      </c>
-      <c r="X26" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>41</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AB26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC26" t="n">
         <v>67</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AG26" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1250</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>v3BOBCpT</t>
+          <t>YFJOBNHr</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -3054,119 +3558,115 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>URUGUAY - SEGUNDA DIVISION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Penarol</t>
+          <t>La Luz</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Defensor Sp.</t>
+          <t>Tacuarembo</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H27" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K27" t="n">
-        <v>8</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="O27" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.63</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="T27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="V27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W27" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="X27" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="Y27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="AE27" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>17</v>
+        <v>10.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="n">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="AI27" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YFJOBNHr</t>
+          <t>2eBu8uH7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -3176,7 +3676,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -3186,49 +3686,105 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>La Luz</t>
+          <t>Rentistas</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tacuarembo</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+          <t>Artigas</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.8</v>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T28" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U28" t="n">
+        <v>9</v>
+      </c>
+      <c r="V28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W28" t="n">
+        <v>16</v>
+      </c>
+      <c r="X28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>500</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2eBu8uH7</t>
+          <t>fV7X91ne</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -3238,7 +3794,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -3248,49 +3804,105 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Rentistas</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Artigas</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
+          <t>Fenix</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.65</v>
+      </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U29" t="n">
+        <v>12</v>
+      </c>
+      <c r="V29" t="n">
+        <v>10</v>
+      </c>
+      <c r="W29" t="n">
+        <v>29</v>
+      </c>
+      <c r="X29" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>700</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fV7X91ne</t>
+          <t>QVDgNPOj</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -3300,59 +3912,119 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>URUGUAY - SEGUNDA DIVISION</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Oriental</t>
+          <t>DC United</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Fenix</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K30" t="n">
+        <v>13</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T30" t="n">
+        <v>11</v>
+      </c>
+      <c r="U30" t="n">
+        <v>15</v>
+      </c>
+      <c r="V30" t="n">
+        <v>10</v>
+      </c>
+      <c r="W30" t="n">
+        <v>26</v>
+      </c>
+      <c r="X30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>QVDgNPOj</t>
+          <t>hx6uoTGc</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3362,7 +4034,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>22:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -3372,109 +4044,109 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>DC United</t>
+          <t>Colorado Rapids</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Austin FC</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M31" t="n">
         <v>3.5</v>
       </c>
-      <c r="I31" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J31" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K31" t="n">
-        <v>13</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M31" t="n">
-        <v>4.33</v>
-      </c>
       <c r="N31" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="O31" t="n">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="P31" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="T31" t="n">
+        <v>8</v>
+      </c>
+      <c r="U31" t="n">
+        <v>10</v>
+      </c>
+      <c r="V31" t="n">
+        <v>9</v>
+      </c>
+      <c r="W31" t="n">
+        <v>19</v>
+      </c>
+      <c r="X31" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z31" t="n">
         <v>11</v>
-      </c>
-      <c r="U31" t="n">
-        <v>15</v>
-      </c>
-      <c r="V31" t="n">
-        <v>10</v>
-      </c>
-      <c r="W31" t="n">
-        <v>26</v>
-      </c>
-      <c r="X31" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>13</v>
       </c>
       <c r="AA31" t="n">
         <v>7</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AC31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AD31" t="n">
         <v>11</v>
       </c>
       <c r="AE31" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AG31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AH31" t="n">
         <v>26</v>
       </c>
-      <c r="AH31" t="n">
-        <v>19</v>
-      </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ31" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>hx6uoTGc</t>
+          <t>0OUI0jvI</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3484,119 +4156,119 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>22:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>USA - MLS</t>
+          <t>USA - USL CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Colorado Rapids</t>
+          <t>Loudoun</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Austin FC</t>
+          <t>Charleston</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.77</v>
       </c>
       <c r="H32" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
-        <v>3.3</v>
+        <v>2.27</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>11</v>
+        <v>7.8</v>
       </c>
       <c r="L32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M32" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="N32" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="O32" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="P32" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="R32" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>10.25</v>
       </c>
       <c r="U32" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="V32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="W32" t="n">
+        <v>32</v>
+      </c>
+      <c r="X32" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AD32" t="n">
         <v>9</v>
       </c>
-      <c r="W32" t="n">
-        <v>19</v>
-      </c>
-      <c r="X32" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>11</v>
-      </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF32" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG32" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AH32" t="n">
-        <v>26</v>
+        <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="AJ32" t="n">
-        <v>201</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>0OUI0jvI</t>
+          <t>8fyyjZPa</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3606,7 +4278,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3616,109 +4288,109 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Loudoun</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Charleston</t>
+          <t>Detroit</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.22</v>
+        <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>2.67</v>
+        <v>3.65</v>
       </c>
       <c r="J33" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="L33" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="M33" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="N33" t="n">
-        <v>1.65</v>
+        <v>2.42</v>
       </c>
       <c r="O33" t="n">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="Q33" t="n">
-        <v>3.05</v>
+        <v>2.27</v>
       </c>
       <c r="R33" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>10</v>
+        <v>5.5</v>
       </c>
       <c r="U33" t="n">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="V33" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="W33" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X33" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="n">
-        <v>8.5</v>
+        <v>5.7</v>
       </c>
       <c r="AA33" t="n">
-        <v>7.3</v>
+        <v>6.3</v>
       </c>
       <c r="AB33" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="AC33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH33" t="n">
         <v>45</v>
       </c>
-      <c r="AD33" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>32</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>20</v>
-      </c>
       <c r="AI33" t="n">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
-        <v>300</v>
+        <v>900</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8fyyjZPa</t>
+          <t>CSsSieem</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3738,109 +4410,109 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Rhode Island</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Miami FC</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="I34" t="n">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="J34" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="K34" t="n">
-        <v>6.6</v>
+        <v>8.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="M34" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="N34" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>1.7</v>
+        <v>2.02</v>
       </c>
       <c r="P34" t="n">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="R34" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="S34" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="T34" t="n">
         <v>6.9</v>
       </c>
       <c r="U34" t="n">
-        <v>9.75</v>
+        <v>6.6</v>
       </c>
       <c r="V34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="W34" t="n">
+        <v>9</v>
+      </c>
+      <c r="X34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>27</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AA34" t="n">
         <v>8.75</v>
       </c>
-      <c r="W34" t="n">
-        <v>20</v>
-      </c>
-      <c r="X34" t="n">
+      <c r="AB34" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD34" t="n">
         <v>18</v>
       </c>
-      <c r="Y34" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC34" t="n">
+      <c r="AE34" t="n">
+        <v>45</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH34" t="n">
         <v>75</v>
       </c>
-      <c r="AD34" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>32</v>
-      </c>
       <c r="AI34" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CSsSieem</t>
+          <t>KEMA2C95</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3850,7 +4522,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3860,109 +4532,109 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Rhode Island</t>
+          <t>Louisville City</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Miami FC</t>
+          <t>Tampa Bay</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
         <v>3.65</v>
       </c>
       <c r="I35" t="n">
-        <v>4.55</v>
+        <v>4.85</v>
       </c>
       <c r="J35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="K35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="U35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="V35" t="n">
+        <v>8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="X35" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AA35" t="n">
         <v>7.2</v>
       </c>
-      <c r="L35" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M35" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="N35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="P35" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T35" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="U35" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="V35" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W35" t="n">
-        <v>12</v>
-      </c>
-      <c r="X35" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AB35" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG35" t="n">
         <v>90</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>80</v>
       </c>
       <c r="AH35" t="n">
         <v>50</v>
       </c>
       <c r="AI35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ35" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>KEMA2C95</t>
+          <t>jZUg6fAt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3972,7 +4644,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3982,100 +4654,100 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Louisville City</t>
+          <t>New Mexico</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tampa Bay</t>
+          <t>Colorado Springs</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="J36" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="L36" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="M36" t="n">
-        <v>3.4</v>
+        <v>2.95</v>
       </c>
       <c r="N36" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="O36" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="P36" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.72</v>
+        <v>2.52</v>
       </c>
       <c r="R36" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S36" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T36" t="n">
         <v>7</v>
       </c>
       <c r="U36" t="n">
-        <v>7.7</v>
+        <v>9.75</v>
       </c>
       <c r="V36" t="n">
-        <v>7.9</v>
+        <v>8.75</v>
       </c>
       <c r="W36" t="n">
-        <v>12</v>
+        <v>19.5</v>
       </c>
       <c r="X36" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>7.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA36" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB36" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC36" t="n">
         <v>75</v>
       </c>
       <c r="AD36" t="n">
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="AE36" t="n">
-        <v>32</v>
+        <v>16.5</v>
       </c>
       <c r="AF36" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AH36" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AI36" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AJ36" t="n">
         <v>600</v>
@@ -4084,7 +4756,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>jZUg6fAt</t>
+          <t>0lE9ZDuJ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4104,109 +4776,109 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>New Mexico</t>
+          <t>San Antonio</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Colorado Springs</t>
+          <t>Las Vegas Lights</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="H37" t="n">
         <v>3.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.65</v>
+        <v>4.45</v>
       </c>
       <c r="J37" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K37" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="L37" t="n">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="M37" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" t="n">
         <v>1.72</v>
       </c>
-      <c r="O37" t="n">
-        <v>2</v>
-      </c>
       <c r="P37" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="R37" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="S37" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="T37" t="n">
-        <v>8.25</v>
+        <v>6.2</v>
       </c>
       <c r="U37" t="n">
-        <v>9.5</v>
+        <v>7.4</v>
       </c>
       <c r="V37" t="n">
         <v>8.25</v>
       </c>
       <c r="W37" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X37" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y37" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Z37" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AA37" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AB37" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AC37" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>80</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>50</v>
+      </c>
+      <c r="AI37" t="n">
         <v>55</v>
       </c>
-      <c r="AD37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>55</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>32</v>
-      </c>
       <c r="AJ37" t="n">
-        <v>350</v>
+        <v>800</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>0lE9ZDuJ</t>
+          <t>ClJ24Yvg</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4216,7 +4888,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4226,100 +4898,100 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Monterey Bay</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Las Vegas Lights</t>
+          <t>Lexington</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>2.77</v>
       </c>
       <c r="J38" t="n">
         <v>1.06</v>
       </c>
       <c r="K38" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="N38" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="O38" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="P38" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="R38" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="T38" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="U38" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="V38" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="W38" t="n">
+        <v>23</v>
+      </c>
+      <c r="X38" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD38" t="n">
         <v>9</v>
       </c>
-      <c r="V38" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="W38" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="X38" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>26</v>
-      </c>
-      <c r="Z38" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA38" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>70</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>11</v>
-      </c>
       <c r="AE38" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AF38" t="n">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AJ38" t="n">
         <v>500</v>
@@ -4328,7 +5000,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ClJ24Yvg</t>
+          <t>0AkpniPO</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4348,109 +5020,109 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Monterey Bay</t>
+          <t>Oakland Roots</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Lexington</t>
+          <t>El Paso</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="H39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="K39" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="R39" t="n">
         <v>1.8</v>
       </c>
-      <c r="H39" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="K39" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="L39" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O39" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="P39" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="R39" t="n">
-        <v>1.91</v>
-      </c>
       <c r="S39" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="V39" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>14.5</v>
+        <v>35</v>
       </c>
       <c r="X39" t="n">
-        <v>15.5</v>
+        <v>26</v>
       </c>
       <c r="Y39" t="n">
+        <v>37</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>75</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI39" t="n">
         <v>30</v>
       </c>
-      <c r="Z39" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD39" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ39" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>0AkpniPO</t>
+          <t>t8ZrlDfC</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4460,7 +5132,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>23:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4470,109 +5142,109 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oakland Roots</t>
+          <t>Phoenix Rising</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>El Paso</t>
+          <t>Orange County SC</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I40" t="n">
-        <v>2.18</v>
+        <v>2.95</v>
       </c>
       <c r="J40" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>8</v>
+        <v>7.1</v>
       </c>
       <c r="L40" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="M40" t="n">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="N40" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="O40" t="n">
         <v>1.75</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.95</v>
-      </c>
       <c r="P40" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.87</v>
+        <v>2.62</v>
       </c>
       <c r="R40" t="n">
-        <v>1.65</v>
+        <v>1.82</v>
       </c>
       <c r="S40" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="T40" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="U40" t="n">
         <v>10.25</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
+        <v>9</v>
+      </c>
+      <c r="W40" t="n">
+        <v>20</v>
+      </c>
+      <c r="X40" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB40" t="n">
         <v>15</v>
       </c>
-      <c r="V40" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W40" t="n">
-        <v>32</v>
-      </c>
-      <c r="X40" t="n">
-        <v>23</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>29</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>7</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC40" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AD40" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE40" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AF40" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AG40" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AH40" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AI40" t="n">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="AJ40" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t8ZrlDfC</t>
+          <t>Cj8NBkC6</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4582,119 +5254,111 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>23:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>USA - USL CHAMPIONSHIP</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Phoenix Rising</t>
+          <t>Dep. Tachira</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Orange County SC</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K41" t="n">
-        <v>8.5</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="M41" t="n">
-        <v>3.95</v>
+        <v>3.35</v>
       </c>
       <c r="N41" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="O41" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="P41" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>3.05</v>
-      </c>
+        <v>1.93</v>
+      </c>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="S41" t="n">
-        <v>2.27</v>
+        <v>1.83</v>
       </c>
       <c r="T41" t="n">
-        <v>10.25</v>
+        <v>7</v>
       </c>
       <c r="U41" t="n">
-        <v>13</v>
+        <v>7.2</v>
       </c>
       <c r="V41" t="n">
-        <v>9.25</v>
+        <v>7.9</v>
       </c>
       <c r="W41" t="n">
-        <v>23</v>
+        <v>10.75</v>
       </c>
       <c r="X41" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>24</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB41" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y41" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AC41" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AD41" t="n">
-        <v>11.25</v>
+        <v>16.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AF41" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="AG41" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AH41" t="n">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="AI41" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="AJ41" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Cj8NBkC6</t>
+          <t>Y5dW9TtJ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4704,7 +5368,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -4714,106 +5378,100 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Dep. Tachira</t>
+          <t>Carabobo</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
+          <t>Metropolitanos</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H42" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.82</v>
+      </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Y5dW9TtJ</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>07/06/2025</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Carabobo</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Metropolitanos</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="N42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="T42" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="U42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W42" t="n">
+        <v>26</v>
+      </c>
+      <c r="X42" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>35</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -1060,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y5" t="n">
         <v>37</v>
@@ -1078,10 +1078,10 @@
         <v>75</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>9.75</v>
@@ -1140,10 +1140,10 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.57</v>
@@ -1158,19 +1158,19 @@
         <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="U6" t="n">
         <v>11</v>
@@ -1185,7 +1185,7 @@
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="Z6" t="n">
         <v>5</v>
@@ -1485,13 +1485,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1515,7 +1515,7 @@
         <v>1.53</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
         <v>1.93</v>
@@ -1616,16 +1616,16 @@
         <v>3.4</v>
       </c>
       <c r="J10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N10" t="n">
         <v>2.6</v>
@@ -1730,7 +1730,7 @@
         <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I11" t="n">
         <v>4.6</v>
@@ -1755,31 +1755,31 @@
         <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U11" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>8</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="Y11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AB11" t="n">
         <v>14</v>
@@ -1788,10 +1788,10 @@
         <v>50</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1803,7 +1803,7 @@
         <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ11" t="n">
         <v>350</v>
@@ -1844,7 +1844,7 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
         <v>1.98</v>
@@ -1871,7 +1871,7 @@
         <v>13.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V12" t="n">
         <v>11.5</v>
@@ -1883,13 +1883,13 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -1898,7 +1898,7 @@
         <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE12" t="n">
         <v>11.5</v>
@@ -1954,7 +1954,7 @@
         <v>2.25</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
         <v>2.92</v>
@@ -1971,21 +1971,21 @@
         <v>1.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="T13" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="U13" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="V13" t="n">
         <v>8.75</v>
@@ -1994,16 +1994,16 @@
         <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Z13" t="n">
         <v>11.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2012,25 +2012,25 @@
         <v>50</v>
       </c>
       <c r="AD13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.25</v>
       </c>
       <c r="AG13" t="n">
         <v>37</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14">
@@ -2492,10 +2492,10 @@
         <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2504,10 +2504,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2739,7 +2739,7 @@
         <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -2754,10 +2754,10 @@
         <v>1.62</v>
       </c>
       <c r="P20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
         <v>2</v>
@@ -2769,7 +2769,7 @@
         <v>6</v>
       </c>
       <c r="U20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V20" t="n">
         <v>9</v>
@@ -2784,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2855,13 +2855,13 @@
         <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L21" t="n">
         <v>1.5</v>
@@ -2870,16 +2870,16 @@
         <v>2.42</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
       </c>
       <c r="P21" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
         <v>2.05</v>
@@ -2888,7 +2888,7 @@
         <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="U21" t="n">
         <v>9.25</v>
@@ -2897,16 +2897,16 @@
         <v>9</v>
       </c>
       <c r="W21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X21" t="n">
         <v>20</v>
       </c>
       <c r="Y21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA21" t="n">
         <v>5.8</v>
@@ -2918,7 +2918,7 @@
         <v>110</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>17.5</v>
@@ -2930,10 +2930,10 @@
         <v>55</v>
       </c>
       <c r="AH21" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AI21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ21" t="n">
         <v>800</v>
@@ -3577,13 +3577,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H27" t="n">
         <v>3.05</v>
       </c>
       <c r="I27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -3606,25 +3606,25 @@
         <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S27" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
         <v>7</v>
       </c>
       <c r="U27" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="V27" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X27" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y27" t="n">
         <v>35</v>
@@ -3645,19 +3645,19 @@
         <v>7.8</v>
       </c>
       <c r="AE27" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
         <v>37</v>
       </c>
       <c r="AH27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AI27" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ27" t="n">
         <v>800</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -3952,10 +3952,10 @@
         <v>4</v>
       </c>
       <c r="N30" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="O30" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="P30" t="n">
         <v>1.33</v>
@@ -3979,10 +3979,10 @@
         <v>10</v>
       </c>
       <c r="W30" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="X30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y30" t="n">
         <v>26</v>
@@ -4012,7 +4012,7 @@
         <v>23</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
         <v>23</v>
@@ -4062,13 +4062,13 @@
         <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="K31" t="n">
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
         <v>3.5</v>
@@ -4175,10 +4175,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I32" t="n">
         <v>2.27</v>
@@ -4187,31 +4187,31 @@
         <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="L32" t="n">
         <v>1.25</v>
       </c>
       <c r="M32" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="N32" t="n">
         <v>1.75</v>
       </c>
       <c r="O32" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P32" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="R32" t="n">
         <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T32" t="n">
         <v>10.25</v>
@@ -4229,10 +4229,10 @@
         <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA32" t="n">
         <v>6.7</v>
@@ -4244,7 +4244,7 @@
         <v>50</v>
       </c>
       <c r="AD32" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE32" t="n">
         <v>12</v>
@@ -4259,7 +4259,7 @@
         <v>17.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ32" t="n">
         <v>350</v>
@@ -4303,7 +4303,7 @@
         <v>3.1</v>
       </c>
       <c r="I33" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J33" t="n">
         <v>1.11</v>
@@ -4330,37 +4330,37 @@
         <v>2.27</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T33" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U33" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="V33" t="n">
         <v>9.25</v>
       </c>
       <c r="W33" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="n">
         <v>5.7</v>
       </c>
       <c r="AA33" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC33" t="n">
         <v>120</v>
@@ -4372,10 +4372,10 @@
         <v>18</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH33" t="n">
         <v>45</v>
@@ -4422,10 +4422,10 @@
         <v>1.4</v>
       </c>
       <c r="H34" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="I34" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4434,16 +4434,16 @@
         <v>8.25</v>
       </c>
       <c r="L34" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M34" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N34" t="n">
         <v>1.7</v>
       </c>
       <c r="O34" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="P34" t="n">
         <v>1.35</v>
@@ -4458,16 +4458,16 @@
         <v>1.78</v>
       </c>
       <c r="T34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="V34" t="n">
         <v>8.25</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="X34" t="n">
         <v>11.5</v>
@@ -4488,10 +4488,10 @@
         <v>90</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AF34" t="n">
         <v>21</v>
@@ -4500,13 +4500,13 @@
         <v>150</v>
       </c>
       <c r="AH34" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI34" t="n">
         <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="35">
@@ -4675,7 +4675,7 @@
         <v>1.07</v>
       </c>
       <c r="K36" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="L36" t="n">
         <v>1.35</v>
@@ -4690,10 +4690,10 @@
         <v>1.7</v>
       </c>
       <c r="P36" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="R36" t="n">
         <v>1.83</v>
@@ -4714,13 +4714,13 @@
         <v>19.5</v>
       </c>
       <c r="X36" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y36" t="n">
         <v>30</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AA36" t="n">
         <v>6.3</v>
@@ -4732,7 +4732,7 @@
         <v>75</v>
       </c>
       <c r="AD36" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE36" t="n">
         <v>16.5</v>
@@ -4910,7 +4910,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I38" t="n">
         <v>2.77</v>
@@ -4919,16 +4919,16 @@
         <v>1.06</v>
       </c>
       <c r="K38" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="N38" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="O38" t="n">
         <v>1.8</v>
@@ -4943,19 +4943,19 @@
         <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="T38" t="n">
         <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V38" t="n">
         <v>9.25</v>
       </c>
       <c r="W38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X38" t="n">
         <v>18.5</v>
@@ -4964,13 +4964,13 @@
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
         <v>65</v>
@@ -4982,7 +4982,7 @@
         <v>14</v>
       </c>
       <c r="AF38" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG38" t="n">
         <v>32</v>
@@ -5044,10 +5044,10 @@
         <v>7.1</v>
       </c>
       <c r="L39" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="N39" t="n">
         <v>1.95</v>
@@ -5077,10 +5077,10 @@
         <v>11</v>
       </c>
       <c r="W39" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X39" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Y39" t="n">
         <v>37</v>
@@ -5098,7 +5098,7 @@
         <v>75</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE39" t="n">
         <v>10.25</v>
@@ -5163,37 +5163,37 @@
         <v>1.07</v>
       </c>
       <c r="K40" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="L40" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M40" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P40" t="n">
         <v>1.44</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="R40" t="n">
         <v>1.82</v>
       </c>
       <c r="S40" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T40" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U40" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V40" t="n">
         <v>9</v>
@@ -5208,13 +5208,13 @@
         <v>30</v>
       </c>
       <c r="Z40" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA40" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB40" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC40" t="n">
         <v>75</v>
@@ -5387,33 +5387,33 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="H42" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.05</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.82</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O42" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P42" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.42</v>
+        <v>2.47</v>
       </c>
       <c r="R42" t="n">
         <v>1.83</v>
@@ -5422,28 +5422,28 @@
         <v>1.78</v>
       </c>
       <c r="T42" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="U42" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="V42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="X42" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
         <v>35</v>
       </c>
       <c r="Z42" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AA42" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB42" t="n">
         <v>15.5</v>
@@ -5452,19 +5452,19 @@
         <v>80</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AI42" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -782,10 +782,10 @@
         <v>5.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="H4" t="n">
         <v>3.7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.37</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -926,19 +926,19 @@
         <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="V4" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W4" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>27</v>
@@ -956,19 +956,19 @@
         <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1274,10 +1274,10 @@
         <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R7" t="n">
         <v>1.93</v>
@@ -1286,13 +1286,13 @@
         <v>1.7</v>
       </c>
       <c r="T7" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="U7" t="n">
         <v>14</v>
       </c>
       <c r="V7" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="W7" t="n">
         <v>37</v>
@@ -1307,7 +1307,7 @@
         <v>7.7</v>
       </c>
       <c r="AA7" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB7" t="n">
         <v>17.5</v>
@@ -1325,13 +1325,13 @@
         <v>9.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1868,10 +1868,10 @@
         <v>2.27</v>
       </c>
       <c r="T12" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
         <v>11.5</v>
@@ -1883,37 +1883,37 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
         <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AC12" t="n">
         <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AF12" t="n">
         <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>250</v>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1971,39 +1971,39 @@
         <v>1.72</v>
       </c>
       <c r="O13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S13" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="T13" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="U13" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="V13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Z13" t="n">
         <v>11.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2012,25 +2012,25 @@
         <v>50</v>
       </c>
       <c r="AD13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF13" t="n">
         <v>10.25</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
         <v>37</v>
       </c>
       <c r="AH13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ13" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14">
@@ -2739,7 +2739,7 @@
         <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.4</v>
@@ -3577,33 +3577,33 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="H27" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="N27" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R27" t="n">
         <v>1.85</v>
@@ -3612,25 +3612,25 @@
         <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="U27" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V27" t="n">
         <v>9.25</v>
       </c>
       <c r="W27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="X27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
         <v>35</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
         <v>5.9</v>
@@ -3639,22 +3639,22 @@
         <v>15.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG27" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH27" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI27" t="n">
         <v>45</v>
@@ -3701,7 +3701,7 @@
         <v>3.4</v>
       </c>
       <c r="I28" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -3712,10 +3712,10 @@
         <v>3.05</v>
       </c>
       <c r="N28" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="O28" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="P28" t="n">
         <v>1.39</v>
@@ -3724,13 +3724,13 @@
         <v>2.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S28" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="T28" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="U28" t="n">
         <v>9</v>
@@ -3745,10 +3745,10 @@
         <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AA28" t="n">
         <v>6.6</v>
@@ -3760,7 +3760,7 @@
         <v>65</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AE28" t="n">
         <v>21</v>
@@ -3769,10 +3769,10 @@
         <v>13</v>
       </c>
       <c r="AG28" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH28" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AI28" t="n">
         <v>40</v>
@@ -3813,90 +3813,90 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I29" t="n">
-        <v>2.65</v>
+        <v>2.87</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M29" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="N29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="P29" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="R29" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S29" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="T29" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="U29" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="V29" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="W29" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="X29" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y29" t="n">
         <v>37</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AA29" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AB29" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AC29" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE29" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AG29" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AI29" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ29" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
     </row>
     <row r="30">
@@ -4062,13 +4062,13 @@
         <v>3.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="K31" t="n">
         <v>11</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
         <v>3.5</v>
@@ -4211,13 +4211,13 @@
         <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="T32" t="n">
         <v>10.25</v>
       </c>
       <c r="U32" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V32" t="n">
         <v>10.25</v>
@@ -4229,7 +4229,7 @@
         <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z32" t="n">
         <v>7.9</v>
@@ -4247,16 +4247,16 @@
         <v>9.25</v>
       </c>
       <c r="AE32" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF32" t="n">
         <v>9</v>
       </c>
       <c r="AG32" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH32" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI32" t="n">
         <v>24</v>
@@ -4666,46 +4666,46 @@
         <v>2.1</v>
       </c>
       <c r="H36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I36" t="n">
         <v>3.2</v>
       </c>
-      <c r="I36" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K36" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="N36" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O36" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="P36" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="R36" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="T36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
         <v>8.75</v>
@@ -4714,43 +4714,43 @@
         <v>19.5</v>
       </c>
       <c r="X36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AA36" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB36" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AE36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AG36" t="n">
         <v>45</v>
       </c>
       <c r="AH36" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI36" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ36" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37">
@@ -4910,7 +4910,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
         <v>2.77</v>
@@ -4919,10 +4919,10 @@
         <v>1.06</v>
       </c>
       <c r="K38" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M38" t="n">
         <v>3.2</v>
@@ -4943,43 +4943,43 @@
         <v>1.75</v>
       </c>
       <c r="S38" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="T38" t="n">
         <v>8</v>
       </c>
       <c r="U38" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="V38" t="n">
         <v>9.25</v>
       </c>
       <c r="W38" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
       </c>
       <c r="Z38" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AC38" t="n">
         <v>65</v>
       </c>
       <c r="AD38" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF38" t="n">
         <v>10.25</v>
@@ -4988,7 +4988,7 @@
         <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI38" t="n">
         <v>32</v>
@@ -5029,13 +5029,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>3.35</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
         <v>1.06</v>
@@ -5062,25 +5062,25 @@
         <v>2.65</v>
       </c>
       <c r="R39" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S39" t="n">
         <v>1.9</v>
       </c>
       <c r="T39" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="U39" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V39" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="W39" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="X39" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y39" t="n">
         <v>37</v>
@@ -5098,19 +5098,19 @@
         <v>75</v>
       </c>
       <c r="AD39" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE39" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="AF39" t="n">
         <v>9</v>
       </c>
       <c r="AG39" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH39" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI39" t="n">
         <v>30</v>
@@ -5387,13 +5387,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H42" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I42" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.05</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="N42" t="n">
         <v>2.07</v>
@@ -5425,31 +5425,31 @@
         <v>6.7</v>
       </c>
       <c r="U42" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
         <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="n">
         <v>35</v>
       </c>
       <c r="Z42" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="AB42" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC42" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD42" t="n">
         <v>8.25</v>
@@ -5458,16 +5458,16 @@
         <v>15</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
         <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="n">
         <v>800</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -656,10 +656,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -719,7 +719,7 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -776,16 +776,16 @@
         <v>3.9</v>
       </c>
       <c r="J3" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="M3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="N3" t="n">
         <v>3.1</v>
@@ -809,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
@@ -824,7 +824,7 @@
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -926,19 +926,19 @@
         <v>2.25</v>
       </c>
       <c r="T4" t="n">
+        <v>10</v>
+      </c>
+      <c r="U4" t="n">
+        <v>15</v>
+      </c>
+      <c r="V4" t="n">
         <v>10.25</v>
       </c>
-      <c r="U4" t="n">
-        <v>16</v>
-      </c>
-      <c r="V4" t="n">
-        <v>10.5</v>
-      </c>
       <c r="W4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
         <v>27</v>
@@ -956,19 +956,19 @@
         <v>50</v>
       </c>
       <c r="AD4" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1009,49 +1009,49 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.35</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.32</v>
+        <v>2.52</v>
       </c>
       <c r="J5" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="N5" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="R5" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="U5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V5" t="n">
         <v>11.25</v>
@@ -1060,43 +1060,43 @@
         <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>7.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AG5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH5" t="n">
         <v>25</v>
       </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="6">
@@ -1140,22 +1140,22 @@
         <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="M6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
         <v>1.62</v>
@@ -1367,75 +1367,75 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="M8" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="R8" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="T8" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="U8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V8" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W8" t="n">
         <v>17</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD8" t="n">
         <v>11.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1450,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -1524,10 +1524,10 @@
         <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="U9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1536,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="X9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>37</v>
@@ -1554,16 +1554,16 @@
         <v>90</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AH9" t="n">
         <v>30</v>
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1640,10 +1640,10 @@
         <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T10" t="n">
         <v>5.5</v>
@@ -1658,7 +1658,7 @@
         <v>21</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
@@ -1676,7 +1676,7 @@
         <v>81</v>
       </c>
       <c r="AD10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -1741,7 +1741,7 @@
         <v>1.19</v>
       </c>
       <c r="M11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
         <v>1.57</v>
@@ -1758,28 +1758,28 @@
         <v>2.07</v>
       </c>
       <c r="T11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="U11" t="n">
         <v>8.75</v>
-      </c>
-      <c r="U11" t="n">
-        <v>9</v>
       </c>
       <c r="V11" t="n">
         <v>8</v>
       </c>
       <c r="W11" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z11" t="n">
         <v>13.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AB11" t="n">
         <v>14</v>
@@ -1788,10 +1788,10 @@
         <v>50</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF11" t="n">
         <v>15</v>
@@ -1803,7 +1803,7 @@
         <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="n">
         <v>350</v>
@@ -1868,10 +1868,10 @@
         <v>2.27</v>
       </c>
       <c r="T12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="V12" t="n">
         <v>11.5</v>
@@ -1883,37 +1883,37 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AA12" t="n">
         <v>7.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
         <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF12" t="n">
         <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>250</v>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1991,7 +1991,7 @@
         <v>9</v>
       </c>
       <c r="W13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X13" t="n">
         <v>17.5</v>
@@ -2027,7 +2027,7 @@
         <v>23</v>
       </c>
       <c r="AI13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ13" t="n">
         <v>350</v>
@@ -2605,19 +2605,19 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="H19" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J19" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
         <v>1.25</v>
@@ -2626,25 +2626,25 @@
         <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
@@ -2656,16 +2656,16 @@
         <v>29</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AB19" t="n">
         <v>13</v>
@@ -2674,10 +2674,10 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>9.5</v>
@@ -2689,10 +2689,10 @@
         <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20">
@@ -2748,10 +2748,10 @@
         <v>2.75</v>
       </c>
       <c r="N20" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="O20" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P20" t="n">
         <v>1.5</v>
@@ -2760,10 +2760,10 @@
         <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T20" t="n">
         <v>6</v>
@@ -2775,10 +2775,10 @@
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="X20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y20" t="n">
         <v>34</v>
@@ -2790,16 +2790,16 @@
         <v>6.5</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC20" t="n">
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -2814,7 +2814,7 @@
         <v>41</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="21">
@@ -2855,7 +2855,7 @@
         <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
@@ -2888,19 +2888,19 @@
         <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="U21" t="n">
+        <v>9</v>
+      </c>
+      <c r="V21" t="n">
         <v>9.25</v>
-      </c>
-      <c r="V21" t="n">
-        <v>9</v>
       </c>
       <c r="W21" t="n">
         <v>20</v>
       </c>
       <c r="X21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y21" t="n">
         <v>40</v>
@@ -2912,16 +2912,16 @@
         <v>5.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC21" t="n">
         <v>110</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
         <v>13</v>
@@ -2983,7 +2983,7 @@
         <v>1.08</v>
       </c>
       <c r="K22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="L22" t="n">
         <v>1.34</v>
@@ -3013,10 +3013,10 @@
         <v>6.2</v>
       </c>
       <c r="U22" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="V22" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W22" t="n">
         <v>13.5</v>
@@ -3025,25 +3025,25 @@
         <v>14</v>
       </c>
       <c r="Y22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z22" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AA22" t="n">
         <v>6.4</v>
       </c>
       <c r="AB22" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
         <v>80</v>
       </c>
       <c r="AD22" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF22" t="n">
         <v>16.5</v>
@@ -3052,10 +3052,10 @@
         <v>110</v>
       </c>
       <c r="AH22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI22" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ22" t="n">
         <v>700</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -3973,10 +3973,10 @@
         <v>11</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W30" t="n">
         <v>29</v>
@@ -3994,22 +3994,22 @@
         <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
       </c>
       <c r="AD30" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -4056,10 +4056,10 @@
         <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4113,7 +4113,7 @@
         <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB31" t="n">
         <v>15</v>
@@ -4122,7 +4122,7 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -4131,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
@@ -4178,7 +4178,7 @@
         <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I32" t="n">
         <v>2.27</v>
@@ -4205,16 +4205,16 @@
         <v>1.37</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="R32" t="n">
         <v>1.62</v>
       </c>
       <c r="S32" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="T32" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="U32" t="n">
         <v>15</v>
@@ -4244,7 +4244,7 @@
         <v>50</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AE32" t="n">
         <v>12.5</v>
@@ -4544,49 +4544,49 @@
         <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="K35" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O35" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="P35" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="R35" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S35" t="n">
         <v>1.9</v>
       </c>
       <c r="T35" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="U35" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="V35" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="W35" t="n">
         <v>12.5</v>
@@ -4598,10 +4598,10 @@
         <v>25</v>
       </c>
       <c r="Z35" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AB35" t="n">
         <v>16</v>
@@ -4613,16 +4613,16 @@
         <v>13.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AF35" t="n">
         <v>16</v>
       </c>
       <c r="AG35" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AH35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI35" t="n">
         <v>50</v>
@@ -4669,7 +4669,7 @@
         <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J36" t="n">
         <v>1.06</v>
@@ -4678,7 +4678,7 @@
         <v>7.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
         <v>3.15</v>
@@ -4705,13 +4705,13 @@
         <v>7.5</v>
       </c>
       <c r="U36" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="V36" t="n">
         <v>8.75</v>
       </c>
       <c r="W36" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="X36" t="n">
         <v>17</v>
@@ -4732,7 +4732,7 @@
         <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AE36" t="n">
         <v>17</v>
@@ -4741,7 +4741,7 @@
         <v>11.25</v>
       </c>
       <c r="AG36" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AH36" t="n">
         <v>29</v>
@@ -4910,7 +4910,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
         <v>2.77</v>
@@ -4922,7 +4922,7 @@
         <v>7.3</v>
       </c>
       <c r="L38" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M38" t="n">
         <v>3.2</v>
@@ -5029,10 +5029,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="H39" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
         <v>2.1</v>
@@ -5077,7 +5077,7 @@
         <v>11.25</v>
       </c>
       <c r="W39" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="X39" t="n">
         <v>28</v>
@@ -5101,13 +5101,13 @@
         <v>7.3</v>
       </c>
       <c r="AE39" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
         <v>9</v>
       </c>
       <c r="AG39" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AH39" t="n">
         <v>17.5</v>
@@ -5273,27 +5273,27 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H41" t="n">
         <v>3.85</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M41" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="N41" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="O41" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
@@ -5301,10 +5301,10 @@
         <v>1.78</v>
       </c>
       <c r="S41" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="T41" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U41" t="n">
         <v>7.2</v>
@@ -5313,19 +5313,19 @@
         <v>7.9</v>
       </c>
       <c r="W41" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="X41" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AB41" t="n">
         <v>16.5</v>
@@ -5334,10 +5334,10 @@
         <v>75</v>
       </c>
       <c r="AD41" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE41" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AF41" t="n">
         <v>18.5</v>
@@ -5387,27 +5387,27 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I42" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M42" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="N42" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="O42" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="P42" t="n">
         <v>1.42</v>
@@ -5416,34 +5416,34 @@
         <v>2.47</v>
       </c>
       <c r="R42" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S42" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T42" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="U42" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="V42" t="n">
         <v>9.5</v>
       </c>
-      <c r="V42" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W42" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Z42" t="n">
         <v>8.25</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AB42" t="n">
         <v>16.5</v>
@@ -5452,25 +5452,25 @@
         <v>90</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AG42" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI42" t="n">
         <v>40</v>
       </c>
-      <c r="AH42" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI42" t="n">
-        <v>45</v>
-      </c>
       <c r="AJ42" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
@@ -686,7 +686,7 @@
         <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="U2" t="n">
         <v>11</v>
@@ -695,10 +695,10 @@
         <v>13</v>
       </c>
       <c r="W2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="n">
         <v>51</v>
@@ -719,7 +719,7 @@
         <v>5.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>15</v>
@@ -731,7 +731,7 @@
         <v>41</v>
       </c>
       <c r="AI2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
     </row>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J4" t="n">
         <v>1.04</v>
@@ -914,10 +914,10 @@
         <v>2.15</v>
       </c>
       <c r="P4" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="R4" t="n">
         <v>1.57</v>
@@ -926,19 +926,19 @@
         <v>2.25</v>
       </c>
       <c r="T4" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V4" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="W4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>27</v>
@@ -959,16 +959,16 @@
         <v>10</v>
       </c>
       <c r="AE4" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH4" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI4" t="n">
         <v>26</v>
@@ -1012,43 +1012,43 @@
         <v>2.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="J5" t="n">
         <v>1.09</v>
       </c>
       <c r="K5" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M5" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="N5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O5" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="T5" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="U5" t="n">
         <v>15</v>
@@ -1060,40 +1060,40 @@
         <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
         <v>40</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AA5" t="n">
         <v>6.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AG5" t="n">
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AJ5" t="n">
         <v>800</v>
@@ -1566,7 +1566,7 @@
         <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
         <v>45</v>
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1622,10 +1622,10 @@
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
         <v>2.6</v>
@@ -1649,16 +1649,16 @@
         <v>5.5</v>
       </c>
       <c r="U10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="V10" t="n">
         <v>10</v>
       </c>
       <c r="W10" t="n">
+        <v>19</v>
+      </c>
+      <c r="X10" t="n">
         <v>21</v>
-      </c>
-      <c r="X10" t="n">
-        <v>23</v>
       </c>
       <c r="Y10" t="n">
         <v>41</v>
@@ -1676,10 +1676,10 @@
         <v>81</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>13</v>
@@ -1691,7 +1691,7 @@
         <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1755,7 +1755,7 @@
         <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T11" t="n">
         <v>8.5</v>
@@ -1776,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
         <v>7.8</v>
@@ -1788,13 +1788,13 @@
         <v>50</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AE11" t="n">
         <v>30</v>
       </c>
       <c r="AF11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
         <v>80</v>
@@ -1806,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12">
@@ -2364,79 +2364,79 @@
         <v>1.6</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S17" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="U17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="V17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="W17" t="n">
         <v>12</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>7.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
         <v>51</v>
@@ -2445,7 +2445,7 @@
         <v>41</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
         <v>351</v>
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2620,16 +2620,16 @@
         <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2677,7 +2677,7 @@
         <v>9.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF19" t="n">
         <v>9.5</v>
@@ -2686,7 +2686,7 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -2730,22 +2730,22 @@
         <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
         <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>2.35</v>
@@ -2772,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="V20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W20" t="n">
         <v>17</v>
@@ -2784,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2796,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -2861,16 +2861,16 @@
         <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="M21" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="N21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -2888,25 +2888,25 @@
         <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="U21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="V21" t="n">
         <v>9</v>
       </c>
-      <c r="V21" t="n">
-        <v>9.25</v>
-      </c>
       <c r="W21" t="n">
+        <v>21</v>
+      </c>
+      <c r="X21" t="n">
         <v>20</v>
       </c>
-      <c r="X21" t="n">
-        <v>21</v>
-      </c>
       <c r="Y21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA21" t="n">
         <v>5.8</v>
@@ -2918,10 +2918,10 @@
         <v>110</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF21" t="n">
         <v>13</v>
@@ -3108,16 +3108,16 @@
         <v>9</v>
       </c>
       <c r="L23" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="N23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="P23" t="n">
         <v>1.44</v>
@@ -3577,90 +3577,90 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.27</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="I27" t="n">
-        <v>3.15</v>
+        <v>3.85</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="N27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O27" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="P27" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="R27" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S27" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T27" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="U27" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="V27" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="W27" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AA27" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AB27" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC27" t="n">
         <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH27" t="n">
         <v>40</v>
       </c>
-      <c r="AH27" t="n">
-        <v>32</v>
-      </c>
       <c r="AI27" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="28">
@@ -4122,7 +4122,7 @@
         <v>51</v>
       </c>
       <c r="AD31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE31" t="n">
         <v>17</v>
@@ -4131,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="AG31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AH31" t="n">
         <v>26</v>
@@ -4306,7 +4306,7 @@
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="K33" t="n">
         <v>5.7</v>
@@ -4330,13 +4330,13 @@
         <v>2.27</v>
       </c>
       <c r="R33" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S33" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="U33" t="n">
         <v>8.25</v>
@@ -4375,7 +4375,7 @@
         <v>14</v>
       </c>
       <c r="AG33" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AH33" t="n">
         <v>45</v>
@@ -4419,13 +4419,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="H34" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4452,61 +4452,61 @@
         <v>2.95</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S34" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="U34" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="V34" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="W34" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X34" t="n">
         <v>11.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z34" t="n">
         <v>8.25</v>
       </c>
       <c r="AA34" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC34" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AD34" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AE34" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AF34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG34" t="n">
         <v>150</v>
       </c>
       <c r="AH34" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="n">
         <v>70</v>
       </c>
       <c r="AJ34" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="35">
@@ -4544,7 +4544,7 @@
         <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -4580,10 +4580,10 @@
         <v>1.9</v>
       </c>
       <c r="T35" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="U35" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="V35" t="n">
         <v>7.9</v>
@@ -4592,7 +4592,7 @@
         <v>12.5</v>
       </c>
       <c r="X35" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y35" t="n">
         <v>25</v>
@@ -4604,13 +4604,13 @@
         <v>7.1</v>
       </c>
       <c r="AB35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC35" t="n">
         <v>75</v>
       </c>
       <c r="AD35" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE35" t="n">
         <v>30</v>
@@ -4622,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="AH35" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AI35" t="n">
         <v>50</v>
@@ -4678,7 +4678,7 @@
         <v>7.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="M36" t="n">
         <v>3.15</v>
@@ -4702,7 +4702,7 @@
         <v>1.95</v>
       </c>
       <c r="T36" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="U36" t="n">
         <v>10.25</v>
@@ -4717,7 +4717,7 @@
         <v>17</v>
       </c>
       <c r="Y36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z36" t="n">
         <v>7.1</v>
@@ -4735,7 +4735,7 @@
         <v>9.5</v>
       </c>
       <c r="AE36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AF36" t="n">
         <v>11.25</v>
@@ -4785,13 +4785,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I37" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J37" t="n">
         <v>1.07</v>
@@ -4827,13 +4827,13 @@
         <v>6.2</v>
       </c>
       <c r="U37" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="V37" t="n">
         <v>8.25</v>
       </c>
       <c r="W37" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="X37" t="n">
         <v>14.5</v>
@@ -4845,10 +4845,10 @@
         <v>6.9</v>
       </c>
       <c r="AA37" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AB37" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC37" t="n">
         <v>90</v>
@@ -4863,10 +4863,10 @@
         <v>15</v>
       </c>
       <c r="AG37" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH37" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AI37" t="n">
         <v>55</v>
@@ -4910,7 +4910,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
         <v>2.77</v>
@@ -4958,7 +4958,7 @@
         <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
@@ -4988,7 +4988,7 @@
         <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
         <v>32</v>
@@ -5387,63 +5387,63 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>2.87</v>
+        <v>3.15</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M42" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="N42" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="O42" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="P42" t="n">
         <v>1.42</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="R42" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="S42" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="T42" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="U42" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="V42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="W42" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="X42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y42" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Z42" t="n">
         <v>8.25</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AB42" t="n">
         <v>16.5</v>
@@ -5452,22 +5452,22 @@
         <v>90</v>
       </c>
       <c r="AD42" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG42" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI42" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ42" t="n">
         <v>900</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -890,46 +890,46 @@
         <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="N4" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="O4" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S4" t="n">
         <v>2.15</v>
       </c>
-      <c r="P4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.25</v>
-      </c>
       <c r="T4" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="U4" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="V4" t="n">
         <v>10.5</v>
@@ -938,28 +938,28 @@
         <v>30</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD4" t="n">
         <v>9.25</v>
       </c>
-      <c r="AA4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AB4" t="n">
+      <c r="AE4" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14</v>
       </c>
       <c r="AF4" t="n">
         <v>10</v>
@@ -968,13 +968,13 @@
         <v>27</v>
       </c>
       <c r="AH4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J5" t="n">
         <v>1.09</v>
@@ -1024,7 +1024,7 @@
         <v>6.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>2.87</v>
@@ -1036,22 +1036,22 @@
         <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="T5" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="U5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="V5" t="n">
         <v>11.25</v>
@@ -1060,7 +1060,7 @@
         <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y5" t="n">
         <v>40</v>
@@ -1069,31 +1069,31 @@
         <v>6.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC5" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF5" t="n">
         <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="n">
         <v>800</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="H7" t="n">
         <v>3.2</v>
       </c>
       <c r="I7" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1289,22 +1289,22 @@
         <v>7.6</v>
       </c>
       <c r="U7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="V7" t="n">
         <v>11.25</v>
       </c>
       <c r="W7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X7" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>45</v>
       </c>
       <c r="Z7" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA7" t="n">
         <v>6.2</v>
@@ -1316,10 +1316,10 @@
         <v>100</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>9.5</v>
@@ -1491,7 +1491,7 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1566,7 +1566,7 @@
         <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI9" t="n">
         <v>45</v>
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1622,10 +1622,10 @@
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="N10" t="n">
         <v>2.6</v>
@@ -1688,7 +1688,7 @@
         <v>41</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="n">
         <v>51</v>
@@ -1730,10 +1730,10 @@
         <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
         <v>1.19</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="N11" t="n">
         <v>1.57</v>
@@ -1758,7 +1758,7 @@
         <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="U11" t="n">
         <v>8.75</v>
@@ -1776,7 +1776,7 @@
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA11" t="n">
         <v>7.8</v>
@@ -1785,19 +1785,19 @@
         <v>14</v>
       </c>
       <c r="AC11" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AD11" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
         <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="n">
         <v>40</v>
@@ -1806,7 +1806,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12">
@@ -1844,7 +1844,7 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I12" t="n">
         <v>1.98</v>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="H13" t="n">
         <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -1982,22 +1982,22 @@
         <v>2.07</v>
       </c>
       <c r="T13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="U13" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="V13" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W13" t="n">
         <v>23</v>
       </c>
       <c r="X13" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z13" t="n">
         <v>11.25</v>
@@ -2012,22 +2012,22 @@
         <v>50</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AH13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
         <v>350</v>
@@ -2617,19 +2617,19 @@
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L19" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="O19" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2638,13 +2638,13 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S19" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
@@ -2659,10 +2659,10 @@
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Z19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2674,7 +2674,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -2686,10 +2686,10 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>151</v>
@@ -2736,10 +2736,10 @@
         <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.44</v>
@@ -3102,10 +3102,10 @@
         <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="K23" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="L23" t="n">
         <v>1.4</v>
@@ -3126,10 +3126,10 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="T23" t="n">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>34</v>
       </c>
       <c r="Z23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA23" t="n">
         <v>6.5</v>
@@ -3162,7 +3162,7 @@
         <v>67</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE23" t="n">
         <v>23</v>
@@ -3577,27 +3577,27 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="H27" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="I27" t="n">
-        <v>3.85</v>
+        <v>2.92</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="M27" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="N27" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="O27" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="P27" t="n">
         <v>1.47</v>
@@ -3609,55 +3609,55 @@
         <v>1.9</v>
       </c>
       <c r="S27" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="T27" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U27" t="n">
-        <v>8.5</v>
+        <v>10.75</v>
       </c>
       <c r="V27" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="W27" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="Y27" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.7</v>
+        <v>7.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC27" t="n">
         <v>90</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AE27" t="n">
-        <v>19.5</v>
+        <v>14</v>
       </c>
       <c r="AF27" t="n">
-        <v>13.5</v>
+        <v>10.75</v>
       </c>
       <c r="AG27" t="n">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="AH27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI27" t="n">
         <v>40</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>55</v>
       </c>
       <c r="AJ27" t="n">
         <v>900</v>
@@ -4053,13 +4053,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
         <v>3.5</v>
       </c>
       <c r="I31" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J31" t="n">
         <v>1.05</v>
@@ -4175,31 +4175,31 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="J32" t="n">
         <v>1.05</v>
       </c>
       <c r="K32" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="L32" t="n">
         <v>1.25</v>
       </c>
       <c r="M32" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="N32" t="n">
         <v>1.75</v>
       </c>
       <c r="O32" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="P32" t="n">
         <v>1.37</v>
@@ -4208,43 +4208,43 @@
         <v>2.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
         <v>2.18</v>
       </c>
       <c r="T32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="U32" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="V32" t="n">
         <v>10</v>
       </c>
-      <c r="U32" t="n">
-        <v>15</v>
-      </c>
-      <c r="V32" t="n">
-        <v>10.25</v>
-      </c>
       <c r="W32" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X32" t="n">
         <v>22</v>
       </c>
       <c r="Y32" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z32" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AA32" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AB32" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC32" t="n">
         <v>50</v>
       </c>
       <c r="AD32" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AE32" t="n">
         <v>12.5</v>
@@ -4253,16 +4253,16 @@
         <v>9</v>
       </c>
       <c r="AG32" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH32" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI32" t="n">
         <v>24</v>
       </c>
       <c r="AJ32" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33">
@@ -4419,13 +4419,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="H34" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I34" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="J34" t="n">
         <v>1.04</v>
@@ -4446,10 +4446,10 @@
         <v>2.05</v>
       </c>
       <c r="P34" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="R34" t="n">
         <v>1.98</v>
@@ -4458,7 +4458,7 @@
         <v>1.75</v>
       </c>
       <c r="T34" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="U34" t="n">
         <v>6.5</v>
@@ -4482,7 +4482,7 @@
         <v>9</v>
       </c>
       <c r="AB34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
         <v>100</v>
@@ -4500,10 +4500,10 @@
         <v>150</v>
       </c>
       <c r="AH34" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="n">
         <v>75</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>70</v>
       </c>
       <c r="AJ34" t="n">
         <v>800</v>
@@ -4666,7 +4666,7 @@
         <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I36" t="n">
         <v>3.15</v>
@@ -4690,22 +4690,22 @@
         <v>1.78</v>
       </c>
       <c r="P36" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="Q36" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="R36" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S36" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="T36" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U36" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="V36" t="n">
         <v>8.75</v>
@@ -4714,10 +4714,10 @@
         <v>20</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z36" t="n">
         <v>7.1</v>
@@ -4732,7 +4732,7 @@
         <v>65</v>
       </c>
       <c r="AD36" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AE36" t="n">
         <v>16.5</v>
@@ -4744,10 +4744,10 @@
         <v>40</v>
       </c>
       <c r="AH36" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI36" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ36" t="n">
         <v>500</v>
@@ -4910,7 +4910,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I38" t="n">
         <v>2.77</v>
@@ -4958,7 +4958,7 @@
         <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -1009,13 +1009,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
         <v>3.1</v>
       </c>
       <c r="I5" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="J5" t="n">
         <v>1.09</v>
@@ -1036,16 +1036,16 @@
         <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.57</v>
+        <v>2.62</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="T5" t="n">
         <v>8</v>
@@ -1054,31 +1054,31 @@
         <v>15.5</v>
       </c>
       <c r="V5" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="W5" t="n">
         <v>40</v>
       </c>
       <c r="X5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Y5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="Z5" t="n">
         <v>6.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AB5" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE5" t="n">
         <v>12.5</v>
@@ -1087,13 +1087,13 @@
         <v>10</v>
       </c>
       <c r="AG5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
         <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ5" t="n">
         <v>800</v>
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.62</v>
@@ -1170,19 +1170,19 @@
         <v>1.62</v>
       </c>
       <c r="T6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="U6" t="n">
+        <v>10</v>
+      </c>
+      <c r="V6" t="n">
         <v>11</v>
       </c>
-      <c r="V6" t="n">
-        <v>12</v>
-      </c>
       <c r="W6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1251,87 +1251,87 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="M7" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="N7" t="n">
-        <v>2.18</v>
+        <v>2.35</v>
       </c>
       <c r="O7" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P7" t="n">
         <v>1.53</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.5</v>
-      </c>
       <c r="Q7" t="n">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="S7" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>7.6</v>
+        <v>7.1</v>
       </c>
       <c r="U7" t="n">
         <v>13.5</v>
       </c>
       <c r="V7" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="W7" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="n">
+        <v>50</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
         <v>45</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>100</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>40</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
     </row>
@@ -1378,76 +1378,76 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="N8" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="P8" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.52</v>
+        <v>2.47</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S8" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="U8" t="n">
         <v>9.25</v>
       </c>
       <c r="V8" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="W8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
         <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AA8" t="n">
         <v>6.4</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AD8" t="n">
-        <v>11.25</v>
+        <v>10.25</v>
       </c>
       <c r="AE8" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG8" t="n">
         <v>55</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AI8" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AJ8" t="n">
         <v>500</v>
@@ -1488,10 +1488,10 @@
         <v>2.32</v>
       </c>
       <c r="H9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2.95</v>
       </c>
       <c r="J9" t="n">
         <v>1.1</v>
@@ -1524,10 +1524,10 @@
         <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="U9" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1536,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y9" t="n">
         <v>37</v>
@@ -1554,25 +1554,25 @@
         <v>90</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
         <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AJ9" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
     </row>
     <row r="10">
@@ -1730,10 +1730,10 @@
         <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
         <v>1.19</v>
       </c>
       <c r="M11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N11" t="n">
         <v>1.57</v>
@@ -1758,7 +1758,7 @@
         <v>2.05</v>
       </c>
       <c r="T11" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="U11" t="n">
         <v>8.75</v>
@@ -1776,10 +1776,10 @@
         <v>21</v>
       </c>
       <c r="Z11" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA11" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AB11" t="n">
         <v>14</v>
@@ -1788,10 +1788,10 @@
         <v>55</v>
       </c>
       <c r="AD11" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF11" t="n">
         <v>14.5</v>
@@ -2361,19 +2361,19 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
       </c>
       <c r="K17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="L17" t="n">
         <v>1.36</v>
@@ -2382,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2400,7 +2400,7 @@
         <v>1.67</v>
       </c>
       <c r="T17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="U17" t="n">
         <v>7</v>
@@ -2421,7 +2421,7 @@
         <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
@@ -2430,13 +2430,13 @@
         <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
         <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG17" t="n">
         <v>51</v>
@@ -2617,19 +2617,19 @@
         <v>1.04</v>
       </c>
       <c r="K19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="M19" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N19" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="P19" t="n">
         <v>1.33</v>
@@ -2644,7 +2644,7 @@
         <v>2.1</v>
       </c>
       <c r="T19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U19" t="n">
         <v>15</v>
@@ -2674,7 +2674,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE19" t="n">
         <v>12</v>
@@ -2686,7 +2686,7 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>26</v>
@@ -2730,7 +2730,7 @@
         <v>1.95</v>
       </c>
       <c r="H20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>4.1</v>
@@ -2742,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="M20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="N20" t="n">
         <v>2.35</v>
@@ -2754,7 +2754,7 @@
         <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Q20" t="n">
         <v>2.5</v>
@@ -2772,7 +2772,7 @@
         <v>8</v>
       </c>
       <c r="V20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="W20" t="n">
         <v>17</v>
@@ -2784,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="Z20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA20" t="n">
         <v>6.5</v>
@@ -2796,7 +2796,7 @@
         <v>67</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -2971,94 +2971,94 @@
         </is>
       </c>
       <c r="G22" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.7</v>
       </c>
-      <c r="H22" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="K22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.72</v>
-      </c>
       <c r="P22" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
-        <v>6.2</v>
+        <v>6.5</v>
       </c>
       <c r="U22" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="V22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W22" t="n">
+        <v>15</v>
+      </c>
+      <c r="X22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
         <v>13.5</v>
       </c>
-      <c r="X22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG22" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AH22" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ22" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
     </row>
     <row r="23">
@@ -3813,90 +3813,90 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I29" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="N29" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="O29" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="P29" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.27</v>
+        <v>2.37</v>
       </c>
       <c r="R29" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T29" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="U29" t="n">
         <v>10.75</v>
       </c>
       <c r="V29" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="W29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y29" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC29" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="AE29" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
         <v>35</v>
       </c>
       <c r="AH29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30">
@@ -4988,7 +4988,7 @@
         <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI38" t="n">
         <v>32</v>
@@ -5273,71 +5273,75 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H41" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I41" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="M41" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="N41" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S41" t="n">
         <v>1.72</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.82</v>
-      </c>
       <c r="T41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="U41" t="n">
         <v>6.9</v>
       </c>
-      <c r="U41" t="n">
-        <v>7.2</v>
-      </c>
       <c r="V41" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W41" t="n">
         <v>11</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AB41" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC41" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AD41" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AF41" t="n">
         <v>18.5</v>
@@ -5349,10 +5353,10 @@
         <v>65</v>
       </c>
       <c r="AI41" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ41" t="n">
-        <v>600</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42">
@@ -5387,24 +5391,24 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H42" t="n">
         <v>3.3</v>
       </c>
       <c r="I42" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M42" t="n">
         <v>2.65</v>
       </c>
       <c r="N42" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="O42" t="n">
         <v>1.6</v>
@@ -5413,7 +5417,7 @@
         <v>1.42</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="R42" t="n">
         <v>1.88</v>
@@ -5425,22 +5429,22 @@
         <v>6.6</v>
       </c>
       <c r="U42" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="V42" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="W42" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="X42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y42" t="n">
         <v>35</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AA42" t="n">
         <v>6.4</v>
@@ -5455,16 +5459,16 @@
         <v>8.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AG42" t="n">
         <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI42" t="n">
         <v>45</v>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -767,19 +767,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
         <v>2.9</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J3" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.67</v>
@@ -809,22 +809,22 @@
         <v>5</v>
       </c>
       <c r="U3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="V3" t="n">
         <v>11</v>
       </c>
       <c r="W3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
         <v>41</v>
       </c>
       <c r="Z3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA3" t="n">
         <v>6</v>
@@ -836,7 +836,7 @@
         <v>101</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -887,67 +887,67 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>1.05</v>
       </c>
       <c r="K4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="L4" t="n">
         <v>1.25</v>
       </c>
       <c r="M4" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="N4" t="n">
         <v>1.75</v>
       </c>
       <c r="O4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="R4" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S4" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="T4" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="V4" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="W4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="Y4" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AB4" t="n">
         <v>14</v>
@@ -956,22 +956,22 @@
         <v>60</v>
       </c>
       <c r="AD4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
         <v>9.25</v>
       </c>
-      <c r="AE4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>10</v>
-      </c>
       <c r="AG4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>400</v>
@@ -1009,94 +1009,94 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
         <v>2.42</v>
       </c>
       <c r="J5" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>2.87</v>
+        <v>2.7</v>
       </c>
       <c r="N5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="P5" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="U5" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="V5" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="W5" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="X5" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Y5" t="n">
         <v>45</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AB5" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AE5" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF5" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AG5" t="n">
         <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1131,31 +1131,31 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J6" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N6" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
         <v>1.62</v>
@@ -1173,7 +1173,7 @@
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V6" t="n">
         <v>11</v>
@@ -1182,13 +1182,13 @@
         <v>26</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y6" t="n">
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AA6" t="n">
         <v>5.5</v>
@@ -1203,7 +1203,7 @@
         <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1488,7 +1488,7 @@
         <v>2.32</v>
       </c>
       <c r="H9" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
         <v>3</v>
@@ -1524,10 +1524,10 @@
         <v>1.78</v>
       </c>
       <c r="T9" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="U9" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="V9" t="n">
         <v>9.5</v>
@@ -1536,7 +1536,7 @@
         <v>24</v>
       </c>
       <c r="X9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
         <v>37</v>
@@ -1554,25 +1554,25 @@
         <v>90</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AG9" t="n">
         <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ9" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
     </row>
     <row r="10">
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1788,10 +1788,10 @@
         <v>55</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AF11" t="n">
         <v>14.5</v>
@@ -1844,7 +1844,7 @@
         <v>3.25</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I12" t="n">
         <v>1.98</v>
@@ -1868,10 +1868,10 @@
         <v>2.27</v>
       </c>
       <c r="T12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="U12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V12" t="n">
         <v>11.5</v>
@@ -1883,13 +1883,13 @@
         <v>25</v>
       </c>
       <c r="Y12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Z12" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AB12" t="n">
         <v>12</v>
@@ -1898,22 +1898,22 @@
         <v>40</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AE12" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF12" t="n">
         <v>8.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
         <v>14</v>
       </c>
       <c r="AI12" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="n">
         <v>250</v>
@@ -1951,13 +1951,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="H13" t="n">
         <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -2003,7 +2003,7 @@
         <v>11.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AB13" t="n">
         <v>12.5</v>
@@ -2012,16 +2012,16 @@
         <v>50</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF13" t="n">
         <v>10.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH13" t="n">
         <v>24</v>
@@ -2361,13 +2361,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H17" t="n">
         <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J17" t="n">
         <v>1.07</v>
@@ -2382,10 +2382,10 @@
         <v>3</v>
       </c>
       <c r="N17" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2421,7 +2421,7 @@
         <v>8.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
@@ -2430,7 +2430,7 @@
         <v>67</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>26</v>
@@ -2492,10 +2492,10 @@
         <v>2.88</v>
       </c>
       <c r="J18" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L18" t="n">
         <v>1.25</v>
@@ -2504,10 +2504,10 @@
         <v>3.75</v>
       </c>
       <c r="N18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="O18" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="P18" t="n">
         <v>1.36</v>
@@ -2605,13 +2605,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H19" t="n">
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2638,10 +2638,10 @@
         <v>3.25</v>
       </c>
       <c r="R19" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T19" t="n">
         <v>11</v>
@@ -2650,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="W19" t="n">
         <v>29</v>
@@ -2659,10 +2659,10 @@
         <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
         <v>7</v>
@@ -2677,7 +2677,7 @@
         <v>9.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
         <v>9.5</v>
@@ -2686,10 +2686,10 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ19" t="n">
         <v>151</v>
@@ -2727,13 +2727,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="n">
         <v>1.08</v>
@@ -2742,10 +2742,10 @@
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="M20" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="N20" t="n">
         <v>2.35</v>
@@ -2754,7 +2754,7 @@
         <v>1.57</v>
       </c>
       <c r="P20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Q20" t="n">
         <v>2.5</v>
@@ -2775,7 +2775,7 @@
         <v>9</v>
       </c>
       <c r="W20" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X20" t="n">
         <v>19</v>
@@ -2799,7 +2799,7 @@
         <v>9.5</v>
       </c>
       <c r="AE20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF20" t="n">
         <v>15</v>
@@ -2811,7 +2811,7 @@
         <v>41</v>
       </c>
       <c r="AI20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ20" t="n">
         <v>1250</v>
@@ -2855,22 +2855,22 @@
         <v>2.95</v>
       </c>
       <c r="I21" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J21" t="n">
         <v>1.11</v>
       </c>
       <c r="K21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N21" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="O21" t="n">
         <v>1.5</v>
@@ -2888,25 +2888,25 @@
         <v>1.7</v>
       </c>
       <c r="T21" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="U21" t="n">
+        <v>9</v>
+      </c>
+      <c r="V21" t="n">
         <v>9.25</v>
       </c>
-      <c r="V21" t="n">
-        <v>9</v>
-      </c>
       <c r="W21" t="n">
+        <v>20</v>
+      </c>
+      <c r="X21" t="n">
         <v>21</v>
       </c>
-      <c r="X21" t="n">
-        <v>20</v>
-      </c>
       <c r="Y21" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AA21" t="n">
         <v>5.8</v>
@@ -2918,22 +2918,22 @@
         <v>110</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF21" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG21" t="n">
         <v>55</v>
       </c>
       <c r="AH21" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI21" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ21" t="n">
         <v>800</v>
@@ -3007,7 +3007,7 @@
         <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="T22" t="n">
         <v>6.5</v>
@@ -3093,13 +3093,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I23" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="J23" t="n">
         <v>1.08</v>
@@ -3108,10 +3108,10 @@
         <v>7.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="M23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
         <v>2.25</v>
@@ -3126,22 +3126,22 @@
         <v>2.63</v>
       </c>
       <c r="R23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T23" t="n">
         <v>6</v>
       </c>
       <c r="U23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
         <v>9</v>
       </c>
       <c r="W23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X23" t="n">
         <v>17</v>
@@ -3153,31 +3153,31 @@
         <v>7.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AB23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AD23" t="n">
         <v>11</v>
       </c>
       <c r="AE23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AG23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AH23" t="n">
         <v>41</v>
       </c>
       <c r="AI23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="n">
         <v>251</v>
@@ -3215,13 +3215,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>3.2</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J24" t="n">
         <v>1.1</v>
@@ -3257,7 +3257,7 @@
         <v>6.5</v>
       </c>
       <c r="U24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V24" t="n">
         <v>10</v>
@@ -3293,7 +3293,7 @@
         <v>12</v>
       </c>
       <c r="AG24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH24" t="n">
         <v>29</v>
@@ -3695,27 +3695,27 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I28" t="n">
-        <v>3.85</v>
+        <v>4.7</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M28" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="N28" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="O28" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="P28" t="n">
         <v>1.39</v>
@@ -3724,61 +3724,61 @@
         <v>2.55</v>
       </c>
       <c r="R28" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S28" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="T28" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="U28" t="n">
-        <v>9</v>
+        <v>7.9</v>
       </c>
       <c r="V28" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="W28" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
         <v>26</v>
       </c>
       <c r="Z28" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA28" t="n">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="n">
-        <v>10.75</v>
+        <v>12.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AG28" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AI28" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AJ28" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
     </row>
     <row r="29">
@@ -3816,42 +3816,42 @@
         <v>2.35</v>
       </c>
       <c r="H29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M29" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="N29" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="O29" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P29" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="R29" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S29" t="n">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="T29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="U29" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="V29" t="n">
         <v>9.25</v>
@@ -3860,43 +3860,43 @@
         <v>24</v>
       </c>
       <c r="X29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD29" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>75</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>8.25</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AG29" t="n">
         <v>35</v>
       </c>
       <c r="AH29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ29" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
     </row>
     <row r="30">
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -3946,34 +3946,34 @@
         <v>13</v>
       </c>
       <c r="L30" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="N30" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="O30" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="P30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="R30" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="T30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="V30" t="n">
         <v>11</v>
@@ -3988,28 +3988,28 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA30" t="n">
         <v>7</v>
       </c>
       <c r="AB30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>41</v>
       </c>
       <c r="AD30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF30" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE30" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>9</v>
-      </c>
       <c r="AG30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -4018,7 +4018,7 @@
         <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31">
@@ -4220,13 +4220,13 @@
         <v>15.5</v>
       </c>
       <c r="V32" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="W32" t="n">
         <v>35</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>27</v>
@@ -4241,7 +4241,7 @@
         <v>12</v>
       </c>
       <c r="AC32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AD32" t="n">
         <v>9.25</v>
@@ -4300,13 +4300,13 @@
         <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
       </c>
       <c r="J33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="K33" t="n">
         <v>5.7</v>
@@ -4330,10 +4330,10 @@
         <v>2.27</v>
       </c>
       <c r="R33" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="T33" t="n">
         <v>5.5</v>
@@ -4360,7 +4360,7 @@
         <v>6.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>120</v>
@@ -4369,19 +4369,19 @@
         <v>8.25</v>
       </c>
       <c r="AE33" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH33" t="n">
         <v>45</v>
       </c>
       <c r="AI33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ33" t="n">
         <v>900</v>
@@ -4556,10 +4556,10 @@
         <v>7.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M35" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="N35" t="n">
         <v>1.82</v>
@@ -4586,10 +4586,10 @@
         <v>7.6</v>
       </c>
       <c r="V35" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="W35" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X35" t="n">
         <v>13</v>
@@ -4607,13 +4607,13 @@
         <v>15.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AD35" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF35" t="n">
         <v>16</v>
@@ -4678,7 +4678,7 @@
         <v>7.1</v>
       </c>
       <c r="L36" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M36" t="n">
         <v>3.15</v>
@@ -4696,10 +4696,10 @@
         <v>2.65</v>
       </c>
       <c r="R36" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="S36" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="T36" t="n">
         <v>7.4</v>
@@ -4735,7 +4735,7 @@
         <v>9.75</v>
       </c>
       <c r="AE36" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF36" t="n">
         <v>11.25</v>
@@ -4744,7 +4744,7 @@
         <v>40</v>
       </c>
       <c r="AH36" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI36" t="n">
         <v>35</v>
@@ -4788,7 +4788,7 @@
         <v>1.72</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I37" t="n">
         <v>4.4</v>
@@ -4812,10 +4812,10 @@
         <v>1.72</v>
       </c>
       <c r="P37" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="R37" t="n">
         <v>1.93</v>
@@ -4827,7 +4827,7 @@
         <v>6.2</v>
       </c>
       <c r="U37" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="V37" t="n">
         <v>8.25</v>
@@ -4910,7 +4910,7 @@
         <v>2.27</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I38" t="n">
         <v>2.77</v>
@@ -4958,7 +4958,7 @@
         <v>23</v>
       </c>
       <c r="X38" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y38" t="n">
         <v>29</v>
@@ -4988,7 +4988,7 @@
         <v>32</v>
       </c>
       <c r="AH38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI38" t="n">
         <v>32</v>
@@ -5273,27 +5273,27 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H41" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="I41" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="N41" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O41" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="P41" t="n">
         <v>1.4</v>
@@ -5302,16 +5302,16 @@
         <v>2.52</v>
       </c>
       <c r="R41" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="S41" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="T41" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="U41" t="n">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="V41" t="n">
         <v>8</v>
@@ -5320,22 +5320,22 @@
         <v>11</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z41" t="n">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AA41" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AB41" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD41" t="n">
         <v>14.5</v>
@@ -5353,10 +5353,10 @@
         <v>65</v>
       </c>
       <c r="AI41" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ41" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
     </row>
     <row r="42">
@@ -5391,90 +5391,90 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="H42" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="M42" t="n">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="N42" t="n">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="O42" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="P42" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.47</v>
+        <v>2.57</v>
       </c>
       <c r="R42" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S42" t="n">
         <v>1.88</v>
       </c>
-      <c r="S42" t="n">
-        <v>1.72</v>
-      </c>
       <c r="T42" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="U42" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="V42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="W42" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="X42" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y42" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Z42" t="n">
-        <v>8.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA42" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AB42" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>70</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AE42" t="n">
         <v>16.5</v>
       </c>
-      <c r="AC42" t="n">
-        <v>90</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AF42" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG42" t="n">
         <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AI42" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="AJ42" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-06-07.xlsx
@@ -647,19 +647,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H2" t="n">
         <v>2.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="K2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="L2" t="n">
         <v>1.83</v>
@@ -689,7 +689,7 @@
         <v>5.5</v>
       </c>
       <c r="U2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="V2" t="n">
         <v>13</v>
@@ -722,7 +722,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG2" t="n">
         <v>34</v>
@@ -1009,25 +1009,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="J5" t="n">
         <v>1.1</v>
       </c>
       <c r="K5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.42</v>
       </c>
       <c r="M5" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="N5" t="n">
         <v>2.25</v>
@@ -1048,10 +1048,10 @@
         <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="U5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="V5" t="n">
         <v>11.75</v>
@@ -1066,10 +1066,10 @@
         <v>45</v>
       </c>
       <c r="Z5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB5" t="n">
         <v>16.5</v>
@@ -1078,16 +1078,16 @@
         <v>100</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AE5" t="n">
-        <v>11.75</v>
+        <v>11.25</v>
       </c>
       <c r="AF5" t="n">
         <v>10.25</v>
       </c>
       <c r="AG5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
@@ -1096,7 +1096,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="6">
@@ -1131,19 +1131,19 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J6" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
         <v>1.57</v>
@@ -1164,10 +1164,10 @@
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
@@ -1176,7 +1176,7 @@
         <v>11</v>
       </c>
       <c r="V6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W6" t="n">
         <v>26</v>
@@ -1188,7 +1188,7 @@
         <v>41</v>
       </c>
       <c r="Z6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="n">
         <v>5.5</v>
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="H7" t="n">
         <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1268,7 +1268,7 @@
         <v>2.35</v>
       </c>
       <c r="N7" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="O7" t="n">
         <v>1.47</v>
@@ -1280,22 +1280,22 @@
         <v>2.2</v>
       </c>
       <c r="R7" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="U7" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="V7" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="W7" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="X7" t="n">
         <v>32</v>
@@ -1319,16 +1319,16 @@
         <v>6.1</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>10</v>
       </c>
       <c r="AG7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>45</v>
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J10" t="n">
         <v>1.1</v>
@@ -1622,10 +1622,10 @@
         <v>7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="M10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="N10" t="n">
         <v>2.6</v>
@@ -1634,16 +1634,16 @@
         <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="R10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
         <v>5.5</v>
@@ -1664,7 +1664,7 @@
         <v>41</v>
       </c>
       <c r="Z10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA10" t="n">
         <v>6.5</v>
@@ -1688,10 +1688,10 @@
         <v>41</v>
       </c>
       <c r="AH10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI10" t="n">
         <v>41</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>51</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
     </row>
@@ -1730,10 +1730,10 @@
         <v>1.65</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I11" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -1741,7 +1741,7 @@
         <v>1.19</v>
       </c>
       <c r="M11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="N11" t="n">
         <v>1.57</v>
@@ -1752,7 +1752,7 @@
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>2.05</v>
@@ -1800,7 +1800,7 @@
         <v>75</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AI11" t="n">
         <v>37</v>
@@ -2127,7 +2127,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H15" t="n">
         <v>3.15</v>
@@ -2138,16 +2138,16 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M15" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N15" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="O15" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="P15" t="n">
         <v>1.5</v>
@@ -2162,7 +2162,7 @@
         <v>1.65</v>
       </c>
       <c r="T15" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="U15" t="n">
         <v>10</v>
@@ -2174,31 +2174,31 @@
         <v>23</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
         <v>40</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AA15" t="n">
         <v>6.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC15" t="n">
         <v>110</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE15" t="n">
         <v>13.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AG15" t="n">
         <v>35</v>
@@ -2207,7 +2207,7 @@
         <v>30</v>
       </c>
       <c r="AI15" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
     </row>
@@ -2370,22 +2370,22 @@
         <v>5.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="K17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="N17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="O17" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="P17" t="n">
         <v>1.44</v>
@@ -2611,7 +2611,7 @@
         <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="J19" t="n">
         <v>1.04</v>
@@ -2650,7 +2650,7 @@
         <v>15</v>
       </c>
       <c r="V19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W19" t="n">
         <v>29</v>
@@ -2674,7 +2674,7 @@
         <v>41</v>
       </c>
       <c r="AD19" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>13</v>
@@ -2686,7 +2686,7 @@
         <v>23</v>
       </c>
       <c r="AH19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -2998,16 +2998,16 @@
         <v>1.7</v>
       </c>
       <c r="P22" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="R22" t="n">
         <v>1.9</v>
       </c>
       <c r="S22" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="T22" t="n">
         <v>6.5</v>
@@ -3046,7 +3046,7 @@
         <v>21</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG22" t="n">
         <v>65</v>
@@ -3464,10 +3464,10 @@
         <v>5.75</v>
       </c>
       <c r="J26" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="K26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L26" t="n">
         <v>1.36</v>
@@ -3476,10 +3476,10 @@
         <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="P26" t="n">
         <v>1.44</v>
@@ -3813,45 +3813,45 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="H29" t="n">
         <v>3.2</v>
       </c>
       <c r="I29" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M29" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="N29" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="O29" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="P29" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="R29" t="n">
         <v>1.75</v>
       </c>
       <c r="S29" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="T29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="U29" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="V29" t="n">
         <v>9.25</v>
@@ -3863,16 +3863,16 @@
         <v>20</v>
       </c>
       <c r="Y29" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AA29" t="n">
         <v>6.2</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC29" t="n">
         <v>70</v>
@@ -3881,16 +3881,16 @@
         <v>8.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF29" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG29" t="n">
         <v>35</v>
       </c>
       <c r="AH29" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI29" t="n">
         <v>35</v>
@@ -3931,13 +3931,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J30" t="n">
         <v>1.04</v>
@@ -3973,7 +3973,7 @@
         <v>12</v>
       </c>
       <c r="U30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V30" t="n">
         <v>11</v>
@@ -3988,7 +3988,7 @@
         <v>26</v>
       </c>
       <c r="Z30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA30" t="n">
         <v>7</v>
@@ -4018,7 +4018,7 @@
         <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31">
@@ -4300,7 +4300,7 @@
         <v>1.98</v>
       </c>
       <c r="H33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I33" t="n">
         <v>3.7</v>
@@ -4336,7 +4336,7 @@
         <v>1.65</v>
       </c>
       <c r="T33" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="U33" t="n">
         <v>8.25</v>
@@ -4360,7 +4360,7 @@
         <v>6.2</v>
       </c>
       <c r="AB33" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AC33" t="n">
         <v>120</v>
@@ -4369,10 +4369,10 @@
         <v>8.25</v>
       </c>
       <c r="AE33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF33" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG33" t="n">
         <v>60</v>
@@ -4381,7 +4381,7 @@
         <v>45</v>
       </c>
       <c r="AI33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ33" t="n">
         <v>900</v>
@@ -4419,94 +4419,94 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="H34" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K34" t="n">
+        <v>9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T34" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U34" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="V34" t="n">
         <v>8.25</v>
       </c>
-      <c r="L34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N34" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="O34" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="T34" t="n">
-        <v>7</v>
-      </c>
-      <c r="U34" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="V34" t="n">
-        <v>8.5</v>
-      </c>
       <c r="W34" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="X34" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z34" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AA34" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AC34" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AD34" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE34" t="n">
         <v>45</v>
       </c>
       <c r="AF34" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG34" t="n">
         <v>150</v>
       </c>
       <c r="AH34" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AI34" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AJ34" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
     </row>
     <row r="35">
@@ -4544,7 +4544,7 @@
         <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I35" t="n">
         <v>5</v>
@@ -4556,10 +4556,10 @@
         <v>7.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="N35" t="n">
         <v>1.82</v>
@@ -4571,13 +4571,13 @@
         <v>1.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="R35" t="n">
         <v>1.82</v>
       </c>
       <c r="S35" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="T35" t="n">
         <v>6.8</v>
@@ -4601,19 +4601,19 @@
         <v>7.5</v>
       </c>
       <c r="AA35" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AB35" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC35" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AD35" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE35" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF35" t="n">
         <v>16</v>
@@ -4955,7 +4955,7 @@
         <v>9.25</v>
       </c>
       <c r="W38" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X38" t="n">
         <v>18.5</v>
@@ -4967,22 +4967,22 @@
         <v>7.3</v>
       </c>
       <c r="AA38" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AB38" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AC38" t="n">
         <v>65</v>
       </c>
       <c r="AD38" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AE38" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF38" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AG38" t="n">
         <v>32</v>
@@ -5394,7 +5394,7 @@
         <v>2.07</v>
       </c>
       <c r="H42" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I42" t="n">
         <v>3.15</v>
@@ -5402,22 +5402,22 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M42" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="N42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="O42" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="P42" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R42" t="n">
         <v>1.72</v>
@@ -5426,7 +5426,7 @@
         <v>1.88</v>
       </c>
       <c r="T42" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="U42" t="n">
         <v>9.75</v>
@@ -5450,7 +5450,7 @@
         <v>6.7</v>
       </c>
       <c r="AB42" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC42" t="n">
         <v>70</v>
@@ -5459,7 +5459,7 @@
         <v>9.75</v>
       </c>
       <c r="AE42" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF42" t="n">
         <v>11.25</v>
@@ -5468,10 +5468,10 @@
         <v>40</v>
       </c>
       <c r="AH42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI42" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AJ42" t="n">
         <v>500</v>
